--- a/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
+++ b/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
@@ -5,14 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium_Training\web-ui-hybrid-framework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\git\Selenium-Framework\web-ui-hybrid-framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="3" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="4" r:id="rId2"/>
+    <sheet name="Supplier" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Virat</t>
   </si>
@@ -37,11 +40,35 @@
   <si>
     <t>lastName</t>
   </si>
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>itemCode</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>grocery12</t>
+  </si>
+  <si>
+    <t>Grossery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -51,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +88,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -431,4 +465,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
+++ b/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="3" r:id="rId1"/>
     <sheet name="Inventory" sheetId="4" r:id="rId2"/>
     <sheet name="Supplier" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Employee" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Virat</t>
   </si>
@@ -63,6 +63,45 @@
   </si>
   <si>
     <t>Grossery</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>date of Birth</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>Emp Id</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Pan Card No</t>
+  </si>
+  <si>
+    <t>Acc No</t>
+  </si>
+  <si>
+    <t>Virat Kohli</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>100P</t>
+  </si>
+  <si>
+    <t>ASDF123</t>
   </si>
 </sst>
 </file>
@@ -78,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,11 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,12 +587,165 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1011970</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2">
+        <v>123456765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1011970</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12345</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2">
+        <v>123456765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1011970</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
+        <v>12345</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2">
+        <v>123456765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1011970</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>12345</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>123456765</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
+++ b/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="3" r:id="rId1"/>
     <sheet name="Inventory" sheetId="4" r:id="rId2"/>
     <sheet name="Supplier" sheetId="5" r:id="rId3"/>
     <sheet name="Employee" sheetId="6" r:id="rId4"/>
+    <sheet name="SalesInvoice" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Virat</t>
   </si>
@@ -102,13 +103,46 @@
   </si>
   <si>
     <t>ASDF123</t>
+  </si>
+  <si>
+    <t>PoWo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>TransCharge</t>
+  </si>
+  <si>
+    <t>PackCharge</t>
+  </si>
+  <si>
+    <t>1234asdf</t>
+  </si>
+  <si>
+    <t>26/03/2022</t>
+  </si>
+  <si>
+    <t>Shree New Customer</t>
+  </si>
+  <si>
+    <t>22/03/2021</t>
+  </si>
+  <si>
+    <t>abcd12</t>
+  </si>
+  <si>
+    <t>Tanvisha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,8 +150,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,12 +218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +568,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -748,4 +798,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
+++ b/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Supplier" sheetId="5" r:id="rId3"/>
     <sheet name="Employee" sheetId="6" r:id="rId4"/>
     <sheet name="SalesInvoice" sheetId="7" r:id="rId5"/>
+    <sheet name="EditSaleInvoice" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Virat</t>
   </si>
@@ -136,6 +137,30 @@
   </si>
   <si>
     <t>Tanvisha</t>
+  </si>
+  <si>
+    <t>Bill_Address</t>
+  </si>
+  <si>
+    <t>Cont_Person</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Nashik</t>
   </si>
 </sst>
 </file>
@@ -804,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,4 +905,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
+++ b/web-ui-hybrid-framework/src/test/resources/testdata/PurnaTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16635" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Employee" sheetId="6" r:id="rId4"/>
     <sheet name="SalesInvoice" sheetId="7" r:id="rId5"/>
     <sheet name="EditSaleInvoice" sheetId="8" r:id="rId6"/>
+    <sheet name="Customer" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Virat</t>
   </si>
@@ -161,6 +162,42 @@
   </si>
   <si>
     <t>Nashik</t>
+  </si>
+  <si>
+    <t>custName</t>
+  </si>
+  <si>
+    <t>contNumber</t>
+  </si>
+  <si>
+    <t>contPerson</t>
+  </si>
+  <si>
+    <t>gstNo</t>
+  </si>
+  <si>
+    <t>Pragati</t>
+  </si>
+  <si>
+    <t>Asdf</t>
+  </si>
+  <si>
+    <t>gst4321</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>gst567</t>
   </si>
 </sst>
 </file>
@@ -665,7 +702,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -911,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -972,4 +1009,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1010101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1010102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>